--- a/biology/Mycologie/Psilotum/Psilotum.xlsx
+++ b/biology/Mycologie/Psilotum/Psilotum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilotum est un genre de fougères qui regroupe 2 à 3 espèces des régions tropicales à intertropicales voire tempérées-chaudes. En Europe, on peut retrouver, à l'extrême sud de l'Espagne, une seule espèce, Psilotum nudum (découverte seulement en 1966).
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Psilotum est caractérisé par des tiges à divisions dichotomiques (= divisions en forme de Y). Les tiges portent des sporanges réunis en fructification à 3 lobes. Ce sont des espèces épiphytes ou saxicoles.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (30 nov. 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (30 nov. 2019) :
 Psilotum complanatum Sw.
 Psilotum × intermedium W.H. Wagner
 Psilotum nudum (L.) Beauv.</t>
